--- a/modelos/OBAMAS4491012/OBAMAS4491012_Sell Out_metricas.xlsx
+++ b/modelos/OBAMAS4491012/OBAMAS4491012_Sell Out_metricas.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,19 +473,19 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45013</v>
+        <v>45017</v>
       </c>
       <c r="B2" t="n">
-        <v>185.3265481517484</v>
+        <v>119.5658683759902</v>
       </c>
       <c r="C2" t="n">
-        <v>136.6136647090879</v>
+        <v>69.12312457955993</v>
       </c>
       <c r="D2" t="n">
-        <v>233.7015437025962</v>
+        <v>168.9001569176851</v>
       </c>
       <c r="E2" t="n">
-        <v>93</v>
+        <v>56</v>
       </c>
       <c r="F2" s="2" t="n">
         <v>45012</v>
@@ -493,59 +493,59 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45017</v>
+        <v>45022</v>
       </c>
       <c r="B3" t="n">
-        <v>125.6874947871892</v>
+        <v>97.15551789793528</v>
       </c>
       <c r="C3" t="n">
-        <v>73.55112576243447</v>
+        <v>44.73544676849051</v>
       </c>
       <c r="D3" t="n">
-        <v>176.2962090229961</v>
+        <v>149.2238746032324</v>
       </c>
       <c r="E3" t="n">
-        <v>56</v>
+        <v>149</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45012</v>
+        <v>45019</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45022</v>
+        <v>45027</v>
       </c>
       <c r="B4" t="n">
-        <v>94.74742760983398</v>
+        <v>184.5802817665818</v>
       </c>
       <c r="C4" t="n">
-        <v>42.21323192840428</v>
+        <v>133.5950784808388</v>
       </c>
       <c r="D4" t="n">
-        <v>150.6775966653352</v>
+        <v>238.256578461514</v>
       </c>
       <c r="E4" t="n">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45019</v>
+        <v>45026</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45027</v>
+        <v>45033</v>
       </c>
       <c r="B5" t="n">
-        <v>165.8154069748848</v>
+        <v>110.4938413741564</v>
       </c>
       <c r="C5" t="n">
-        <v>110.4081985195654</v>
+        <v>58.2796333718783</v>
       </c>
       <c r="D5" t="n">
-        <v>221.9968117375697</v>
+        <v>162.4058798643574</v>
       </c>
       <c r="E5" t="n">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="F5" s="2" t="n">
         <v>45026</v>
@@ -553,61 +553,41 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
+        <v>45040</v>
+      </c>
+      <c r="B6" t="n">
+        <v>121.4134192616148</v>
+      </c>
+      <c r="C6" t="n">
+        <v>71.38088607798973</v>
+      </c>
+      <c r="D6" t="n">
+        <v>175.3590062213553</v>
+      </c>
+      <c r="E6" t="n">
+        <v>125</v>
+      </c>
+      <c r="F6" s="2" t="n">
         <v>45033</v>
-      </c>
-      <c r="B6" t="n">
-        <v>114.9620074162958</v>
-      </c>
-      <c r="C6" t="n">
-        <v>63.33415874185953</v>
-      </c>
-      <c r="D6" t="n">
-        <v>169.6805417074815</v>
-      </c>
-      <c r="E6" t="n">
-        <v>166</v>
-      </c>
-      <c r="F6" s="2" t="n">
-        <v>45026</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45040</v>
+        <v>45062</v>
       </c>
       <c r="B7" t="n">
-        <v>127.4480054877866</v>
+        <v>190.4639133533035</v>
       </c>
       <c r="C7" t="n">
-        <v>73.3274791374569</v>
+        <v>140.5076558357725</v>
       </c>
       <c r="D7" t="n">
-        <v>179.1886355866008</v>
+        <v>241.695154917478</v>
       </c>
       <c r="E7" t="n">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45033</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>45062</v>
-      </c>
-      <c r="B8" t="n">
-        <v>175.8276448587091</v>
-      </c>
-      <c r="C8" t="n">
-        <v>123.0321992798433</v>
-      </c>
-      <c r="D8" t="n">
-        <v>229.6112686728316</v>
-      </c>
-      <c r="E8" t="n">
-        <v>122</v>
-      </c>
-      <c r="F8" s="2" t="n">
         <v>45055</v>
       </c>
     </row>
@@ -677,25 +657,25 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4439.105516623827</v>
+        <v>1412.277577655683</v>
       </c>
       <c r="C2" t="n">
-        <v>66.62661267559552</v>
+        <v>37.58028176658183</v>
       </c>
       <c r="D2" t="n">
-        <v>55.57097756331656</v>
+        <v>37.58028176658183</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5603772740462034</v>
+        <v>0.2556481752828696</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5603772740462034</v>
+        <v>0.2556481752828696</v>
       </c>
       <c r="G2" t="n">
-        <v>0.3918688298942166</v>
+        <v>0.2266738031969991</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -703,22 +683,22 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>2943.341610950205</v>
+        <v>2687.850324431309</v>
       </c>
       <c r="C3" t="n">
-        <v>54.25257239016602</v>
+        <v>51.84448210206472</v>
       </c>
       <c r="D3" t="n">
-        <v>54.25257239016602</v>
+        <v>51.84448210206472</v>
       </c>
       <c r="E3" t="n">
-        <v>0.364111224095074</v>
+        <v>0.3479495443091592</v>
       </c>
       <c r="F3" t="n">
-        <v>0.364111224095074</v>
+        <v>0.3479495443091592</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4451540098056584</v>
+        <v>0.4212335562882751</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
@@ -729,22 +709,22 @@
         <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>4856.346929714525</v>
+        <v>4040.619622393715</v>
       </c>
       <c r="C4" t="n">
-        <v>69.68749478718922</v>
+        <v>63.56586837599023</v>
       </c>
       <c r="D4" t="n">
-        <v>69.68749478718922</v>
+        <v>63.56586837599023</v>
       </c>
       <c r="E4" t="n">
-        <v>1.244419549771236</v>
+        <v>1.135104792428397</v>
       </c>
       <c r="F4" t="n">
-        <v>1.244419549771236</v>
+        <v>1.135104792428397</v>
       </c>
       <c r="G4" t="n">
-        <v>0.7671138277162582</v>
+        <v>0.7241255827682651</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -755,25 +735,25 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>1836.094922959262</v>
+        <v>2593.701546146304</v>
       </c>
       <c r="C5" t="n">
-        <v>42.84967821301885</v>
+        <v>50.92839626521047</v>
       </c>
       <c r="D5" t="n">
-        <v>35.77121431006663</v>
+        <v>42.51888423917741</v>
       </c>
       <c r="E5" t="n">
-        <v>0.256084011437008</v>
+        <v>0.3080822377034614</v>
       </c>
       <c r="F5" t="n">
-        <v>0.3074577866488202</v>
+        <v>0.3343744495532745</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2480571386545893</v>
+        <v>0.2896100218603691</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6666666666666667</v>
+        <v>0.3333333333333334</v>
       </c>
     </row>
   </sheetData>

--- a/modelos/OBAMAS4491012/OBAMAS4491012_Sell Out_metricas.xlsx
+++ b/modelos/OBAMAS4491012/OBAMAS4491012_Sell Out_metricas.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,59 +473,59 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45017</v>
+        <v>45022</v>
       </c>
       <c r="B2" t="n">
-        <v>119.5658683759902</v>
+        <v>81.08804484438588</v>
       </c>
       <c r="C2" t="n">
-        <v>69.12312457955993</v>
+        <v>25.32779197516704</v>
       </c>
       <c r="D2" t="n">
-        <v>168.9001569176851</v>
+        <v>132.0661525897565</v>
       </c>
       <c r="E2" t="n">
-        <v>56</v>
+        <v>149</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45012</v>
+        <v>45019</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45022</v>
+        <v>45027</v>
       </c>
       <c r="B3" t="n">
-        <v>97.15551789793528</v>
+        <v>158.5879542481001</v>
       </c>
       <c r="C3" t="n">
-        <v>44.73544676849051</v>
+        <v>103.3340785718241</v>
       </c>
       <c r="D3" t="n">
-        <v>149.2238746032324</v>
+        <v>211.8428497141602</v>
       </c>
       <c r="E3" t="n">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45019</v>
+        <v>45026</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45027</v>
+        <v>45033</v>
       </c>
       <c r="B4" t="n">
-        <v>184.5802817665818</v>
+        <v>96.45094071744451</v>
       </c>
       <c r="C4" t="n">
-        <v>133.5950784808388</v>
+        <v>42.15556724444965</v>
       </c>
       <c r="D4" t="n">
-        <v>238.256578461514</v>
+        <v>151.6241986476428</v>
       </c>
       <c r="E4" t="n">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="F4" s="2" t="n">
         <v>45026</v>
@@ -533,61 +533,41 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
+        <v>45040</v>
+      </c>
+      <c r="B5" t="n">
+        <v>110.6635084915664</v>
+      </c>
+      <c r="C5" t="n">
+        <v>53.31903920468912</v>
+      </c>
+      <c r="D5" t="n">
+        <v>163.1616940047822</v>
+      </c>
+      <c r="E5" t="n">
+        <v>125</v>
+      </c>
+      <c r="F5" s="2" t="n">
         <v>45033</v>
-      </c>
-      <c r="B5" t="n">
-        <v>110.4938413741564</v>
-      </c>
-      <c r="C5" t="n">
-        <v>58.2796333718783</v>
-      </c>
-      <c r="D5" t="n">
-        <v>162.4058798643574</v>
-      </c>
-      <c r="E5" t="n">
-        <v>166</v>
-      </c>
-      <c r="F5" s="2" t="n">
-        <v>45026</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45040</v>
+        <v>45062</v>
       </c>
       <c r="B6" t="n">
-        <v>121.4134192616148</v>
+        <v>169.1184635462439</v>
       </c>
       <c r="C6" t="n">
-        <v>71.38088607798973</v>
+        <v>116.4417047314535</v>
       </c>
       <c r="D6" t="n">
-        <v>175.3590062213553</v>
+        <v>224.9799382552185</v>
       </c>
       <c r="E6" t="n">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45033</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>45062</v>
-      </c>
-      <c r="B7" t="n">
-        <v>190.4639133533035</v>
-      </c>
-      <c r="C7" t="n">
-        <v>140.5076558357725</v>
-      </c>
-      <c r="D7" t="n">
-        <v>241.695154917478</v>
-      </c>
-      <c r="E7" t="n">
-        <v>122</v>
-      </c>
-      <c r="F7" s="2" t="n">
         <v>45055</v>
       </c>
     </row>
@@ -602,7 +582,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -657,22 +637,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1412.277577655683</v>
+        <v>134.2806836560603</v>
       </c>
       <c r="C2" t="n">
-        <v>37.58028176658183</v>
+        <v>11.58795424810006</v>
       </c>
       <c r="D2" t="n">
-        <v>37.58028176658183</v>
+        <v>11.58795424810006</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2556481752828696</v>
+        <v>0.07882962073537457</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2556481752828696</v>
+        <v>0.07882962073537457</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2266738031969991</v>
+        <v>0.0758403862914836</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -683,77 +663,51 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>2687.850324431309</v>
+        <v>4612.033653058143</v>
       </c>
       <c r="C3" t="n">
-        <v>51.84448210206472</v>
+        <v>67.91195515561412</v>
       </c>
       <c r="D3" t="n">
-        <v>51.84448210206472</v>
+        <v>67.91195515561412</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3479495443091592</v>
+        <v>0.4557849339302961</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3479495443091592</v>
+        <v>0.4557849339302961</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4212335562882751</v>
+        <v>0.590312766589369</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>4040.619622393715</v>
+        <v>2420.918747606174</v>
       </c>
       <c r="C4" t="n">
-        <v>63.56586837599023</v>
+        <v>49.202832719328</v>
       </c>
       <c r="D4" t="n">
-        <v>63.56586837599023</v>
+        <v>43.66800477907766</v>
       </c>
       <c r="E4" t="n">
-        <v>1.135104792428397</v>
+        <v>0.3066263610076146</v>
       </c>
       <c r="F4" t="n">
-        <v>1.135104792428397</v>
+        <v>0.3862169143134746</v>
       </c>
       <c r="G4" t="n">
-        <v>0.7241255827682651</v>
+        <v>0.3251240914508973</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="3" t="n">
-        <v>7</v>
-      </c>
-      <c r="B5" t="n">
-        <v>2593.701546146304</v>
-      </c>
-      <c r="C5" t="n">
-        <v>50.92839626521047</v>
-      </c>
-      <c r="D5" t="n">
-        <v>42.51888423917741</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.3080822377034614</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.3343744495532745</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.2896100218603691</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.3333333333333334</v>
+        <v>0.6666666666666667</v>
       </c>
     </row>
   </sheetData>

--- a/modelos/OBAMAS4491012/OBAMAS4491012_Sell Out_metricas.xlsx
+++ b/modelos/OBAMAS4491012/OBAMAS4491012_Sell Out_metricas.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,101 +473,161 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45022</v>
+        <v>45005</v>
       </c>
       <c r="B2" t="n">
-        <v>81.08804484438588</v>
+        <v>110.2561938121871</v>
       </c>
       <c r="C2" t="n">
-        <v>25.32779197516704</v>
+        <v>61.68849677281032</v>
       </c>
       <c r="D2" t="n">
-        <v>132.0661525897565</v>
+        <v>163.9480471244042</v>
       </c>
       <c r="E2" t="n">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45019</v>
+        <v>44998</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45027</v>
+        <v>45013</v>
       </c>
       <c r="B3" t="n">
-        <v>158.5879542481001</v>
+        <v>186.5419977216257</v>
       </c>
       <c r="C3" t="n">
-        <v>103.3340785718241</v>
+        <v>136.8085829819712</v>
       </c>
       <c r="D3" t="n">
-        <v>211.8428497141602</v>
+        <v>233.8035771945171</v>
       </c>
       <c r="E3" t="n">
-        <v>147</v>
+        <v>93</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45026</v>
+        <v>45012</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45033</v>
+        <v>45017</v>
       </c>
       <c r="B4" t="n">
-        <v>96.45094071744451</v>
+        <v>127.9469879494195</v>
       </c>
       <c r="C4" t="n">
-        <v>42.15556724444965</v>
+        <v>79.64179314547214</v>
       </c>
       <c r="D4" t="n">
-        <v>151.6241986476428</v>
+        <v>180.9471373954906</v>
       </c>
       <c r="E4" t="n">
-        <v>166</v>
+        <v>56</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45026</v>
+        <v>45012</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45040</v>
+        <v>45022</v>
       </c>
       <c r="B5" t="n">
-        <v>110.6635084915664</v>
+        <v>96.04935195962297</v>
       </c>
       <c r="C5" t="n">
-        <v>53.31903920468912</v>
+        <v>43.18976263663445</v>
       </c>
       <c r="D5" t="n">
-        <v>163.1616940047822</v>
+        <v>145.5829293172737</v>
       </c>
       <c r="E5" t="n">
-        <v>125</v>
+        <v>149</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45033</v>
+        <v>45019</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
+        <v>45027</v>
+      </c>
+      <c r="B6" t="n">
+        <v>166.5198011395752</v>
+      </c>
+      <c r="C6" t="n">
+        <v>112.4183585082102</v>
+      </c>
+      <c r="D6" t="n">
+        <v>217.4966297775549</v>
+      </c>
+      <c r="E6" t="n">
+        <v>147</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>45026</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45033</v>
+      </c>
+      <c r="B7" t="n">
+        <v>115.3910681669168</v>
+      </c>
+      <c r="C7" t="n">
+        <v>60.71579651782302</v>
+      </c>
+      <c r="D7" t="n">
+        <v>168.3518506775806</v>
+      </c>
+      <c r="E7" t="n">
+        <v>166</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>45026</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45040</v>
+      </c>
+      <c r="B8" t="n">
+        <v>128.2045896070174</v>
+      </c>
+      <c r="C8" t="n">
+        <v>73.86187834085884</v>
+      </c>
+      <c r="D8" t="n">
+        <v>177.9027780998044</v>
+      </c>
+      <c r="E8" t="n">
+        <v>125</v>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>45033</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
         <v>45062</v>
       </c>
-      <c r="B6" t="n">
-        <v>169.1184635462439</v>
-      </c>
-      <c r="C6" t="n">
-        <v>116.4417047314535</v>
-      </c>
-      <c r="D6" t="n">
-        <v>224.9799382552185</v>
-      </c>
-      <c r="E6" t="n">
+      <c r="B9" t="n">
+        <v>176.9667087655855</v>
+      </c>
+      <c r="C9" t="n">
+        <v>124.0250697337109</v>
+      </c>
+      <c r="D9" t="n">
+        <v>228.244154237257</v>
+      </c>
+      <c r="E9" t="n">
         <v>122</v>
       </c>
-      <c r="F6" s="2" t="n">
+      <c r="F9" s="2" t="n">
         <v>45055</v>
       </c>
     </row>
@@ -582,7 +642,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -637,25 +697,25 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>134.2806836560603</v>
+        <v>4565.563987140598</v>
       </c>
       <c r="C2" t="n">
-        <v>11.58795424810006</v>
+        <v>67.5689572743327</v>
       </c>
       <c r="D2" t="n">
-        <v>11.58795424810006</v>
+        <v>56.53089943060048</v>
       </c>
       <c r="E2" t="n">
-        <v>0.07882962073537457</v>
+        <v>0.5693078476724263</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07882962073537457</v>
+        <v>0.5693078476724263</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0758403862914836</v>
+        <v>0.3968861044284547</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="3">
@@ -663,22 +723,22 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>4612.033653058143</v>
+        <v>2803.771127895884</v>
       </c>
       <c r="C3" t="n">
-        <v>67.91195515561412</v>
+        <v>52.95064804037703</v>
       </c>
       <c r="D3" t="n">
-        <v>67.91195515561412</v>
+        <v>52.95064804037703</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4557849339302961</v>
+        <v>0.3553734767810539</v>
       </c>
       <c r="F3" t="n">
-        <v>0.4557849339302961</v>
+        <v>0.3553734767810539</v>
       </c>
       <c r="G3" t="n">
-        <v>0.590312766589369</v>
+        <v>0.4321631346252388</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -686,28 +746,54 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="B4" t="n">
+        <v>5176.369074993911</v>
+      </c>
+      <c r="C4" t="n">
+        <v>71.94698794941948</v>
+      </c>
+      <c r="D4" t="n">
+        <v>71.94698794941948</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.284767641953919</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.284767641953919</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.782257853215873</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="B4" t="n">
-        <v>2420.918747606174</v>
-      </c>
-      <c r="C4" t="n">
-        <v>49.202832719328</v>
-      </c>
-      <c r="D4" t="n">
-        <v>43.66800477907766</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.3066263610076146</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.3862169143134746</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.3251240914508973</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.6666666666666667</v>
+      <c r="B5" t="n">
+        <v>1505.794485878327</v>
+      </c>
+      <c r="C5" t="n">
+        <v>38.80456784810684</v>
+      </c>
+      <c r="D5" t="n">
+        <v>32.38100909837473</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.2348515647260815</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.231611374443825</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.2311734426178101</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.75</v>
       </c>
     </row>
   </sheetData>
